--- a/assets/archive/OWASP_MASDG_Checklist-en.xlsx
+++ b/assets/archive/OWASP_MASDG_Checklist-en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1916" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C907CD6-A0A6-4482-A120-B3048A341B3C}"/>
+  <xr:revisionPtr revIDLastSave="1921" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54962A9-E5DB-4F22-8C53-56B6A7230951}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="1620" windowWidth="22428" windowHeight="11340" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
@@ -606,22 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSTG-Authentication and Session Management Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MSTG-Network Communication Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MSTG-Platform Interaction Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MSTG-Code Quality and Build Setting Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ensure that plain-text HTTP URLs are not used (Required)</t>
   </si>
   <si>
@@ -1091,10 +1075,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The OWASP Mobile Application Security Design Checklist includes links to the MASDG rulebooks for each L1 requirement of MASVS (v1.5.0).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Using the Checklists</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1108,6 +1088,26 @@
   </si>
   <si>
     <t>* Discard rules for non-targeted platforms by selecting N/A in the Status column.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASDG-Authentication and Session Management Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASDG-Network Communication Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASDG-Platform Interaction Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASDG-Code Quality and Build Setting Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The OWASP Mobile Application Security Design Checklist includes links to the MASDG rulebooks for each L1 requirement of MASVS (v1.4.2).</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2258,6 +2258,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2557,7 +2561,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="48"/>
       <c r="B3" s="50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -2584,7 +2588,7 @@
     </row>
     <row r="7" spans="1:6" ht="22.8" thickBot="1">
       <c r="B7" s="52" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -2593,37 +2597,37 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="22.8" thickBot="1">
       <c r="B35" s="52" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -2632,17 +2636,17 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="54" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="22.8" thickBot="1">
       <c r="B41" s="52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -2651,7 +2655,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="54" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4404,7 +4408,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="14"/>
       <c r="B3" s="16" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -4865,7 +4869,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="18"/>
       <c r="B3" s="20" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -4915,14 +4919,14 @@
         <v>29</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -4933,7 +4937,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -4944,7 +4948,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -4955,7 +4959,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="32" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -4966,7 +4970,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -4977,7 +4981,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -4988,7 +4992,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -4999,7 +5003,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -5010,7 +5014,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -5025,14 +5029,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6">
       <c r="D20" s="32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -5043,7 +5047,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -5054,7 +5058,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -5065,7 +5069,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -5080,14 +5084,14 @@
         <v>31</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6">
       <c r="D25" s="32" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
@@ -5098,7 +5102,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -5109,7 +5113,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="32" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -5120,7 +5124,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="32" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
@@ -5131,7 +5135,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -5220,7 +5224,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="22"/>
       <c r="B3" s="24" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -5270,14 +5274,14 @@
         <v>32</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -5288,7 +5292,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -5299,7 +5303,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -5310,7 +5314,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -5321,7 +5325,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -5332,7 +5336,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -5343,7 +5347,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -5354,7 +5358,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -5365,7 +5369,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -5376,7 +5380,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -5387,7 +5391,7 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -5402,14 +5406,14 @@
         <v>33</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6">
       <c r="D22" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -5420,7 +5424,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
@@ -5431,7 +5435,7 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -5442,7 +5446,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
@@ -5453,7 +5457,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -5464,7 +5468,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -5475,7 +5479,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -5490,14 +5494,14 @@
         <v>34</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="2:6">
       <c r="D30" s="32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -5508,7 +5512,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -5519,7 +5523,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -5530,7 +5534,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -5541,7 +5545,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -5552,7 +5556,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -5563,7 +5567,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -5578,14 +5582,14 @@
         <v>35</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6">
       <c r="D38" s="32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -5596,7 +5600,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -5607,7 +5611,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -5618,7 +5622,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -5629,7 +5633,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -5640,7 +5644,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -5651,7 +5655,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -5662,7 +5666,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -5673,7 +5677,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -5684,7 +5688,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -5699,14 +5703,14 @@
         <v>36</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6">
       <c r="D49" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E49" t="s">
         <v>0</v>
@@ -5717,7 +5721,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
         <v>0</v>
@@ -5728,7 +5732,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -5739,7 +5743,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -5750,7 +5754,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -5761,7 +5765,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -5772,7 +5776,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -5787,14 +5791,14 @@
         <v>37</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="2:6">
       <c r="D57" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
         <v>0</v>
@@ -5805,7 +5809,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -5816,7 +5820,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -5827,7 +5831,7 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -5838,7 +5842,7 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -5849,7 +5853,7 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -5864,14 +5868,14 @@
         <v>38</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="2:6">
       <c r="D64" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
         <v>0</v>
@@ -5882,7 +5886,7 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -5893,7 +5897,7 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -5908,14 +5912,14 @@
         <v>39</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="2:6">
       <c r="D68" s="32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E68" t="s">
         <v>0</v>
@@ -5926,7 +5930,7 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E69" t="s">
         <v>0</v>
@@ -5937,7 +5941,7 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E70" t="s">
         <v>0</v>
@@ -5948,7 +5952,7 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E71" t="s">
         <v>0</v>
@@ -5959,7 +5963,7 @@
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
         <v>0</v>
@@ -5970,7 +5974,7 @@
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
         <v>0</v>
@@ -5981,7 +5985,7 @@
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
         <v>0</v>
@@ -5992,7 +5996,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
         <v>0</v>
@@ -6003,7 +6007,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -6014,7 +6018,7 @@
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -6025,7 +6029,7 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -6036,7 +6040,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -6047,7 +6051,7 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -6058,7 +6062,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -6069,7 +6073,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -6080,7 +6084,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -6091,7 +6095,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -6102,7 +6106,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -6242,7 +6246,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -6292,14 +6296,14 @@
         <v>41</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -6310,7 +6314,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -6321,7 +6325,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -6332,7 +6336,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -6343,7 +6347,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -6354,7 +6358,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -6365,7 +6369,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -6380,14 +6384,14 @@
         <v>40</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:6">
       <c r="D18" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -6398,7 +6402,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -6413,14 +6417,14 @@
         <v>42</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6">
       <c r="D21" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -6431,7 +6435,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -6446,14 +6450,14 @@
         <v>43</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6">
       <c r="D24" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -6464,7 +6468,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -6475,7 +6479,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -6490,14 +6494,14 @@
         <v>44</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6">
       <c r="D28" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
@@ -6508,7 +6512,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -6519,7 +6523,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -6530,7 +6534,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -6541,7 +6545,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -6552,7 +6556,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -6563,7 +6567,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -6574,7 +6578,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -6589,14 +6593,14 @@
         <v>45</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6">
       <c r="D37" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -6607,7 +6611,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -6618,7 +6622,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -6629,7 +6633,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -6640,7 +6644,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="32" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -6651,7 +6655,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -6662,7 +6666,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -6677,14 +6681,14 @@
         <v>46</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6">
       <c r="D45" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
         <v>0</v>
@@ -6695,7 +6699,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="32" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
         <v>0</v>
@@ -6706,7 +6710,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
         <v>0</v>
@@ -6717,7 +6721,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
         <v>0</v>
@@ -6728,7 +6732,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -6739,7 +6743,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -6750,7 +6754,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -6765,14 +6769,14 @@
         <v>47</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
       <c r="D53" s="32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E53" t="s">
         <v>0</v>
@@ -6783,7 +6787,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -6855,8 +6859,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BCA8C4E00CD6914BB15E65BC01CBDE7F" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c8df890501527c55c882552d47efc66c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871e6f72-565c-478e-b54b-0f8101fa5872" xmlns:ns3="8c68da25-5010-4e84-9e5a-c912ee6e5b08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6f9130429581fb30b5ead648032cb9a" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BCA8C4E00CD6914BB15E65BC01CBDE7F" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="825df9bb69f99628fb034bb6e43fa995">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871e6f72-565c-478e-b54b-0f8101fa5872" xmlns:ns3="8c68da25-5010-4e84-9e5a-c912ee6e5b08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2957babd94b427b2ef1827f483616001" ns2:_="" ns3:_="">
     <xsd:import namespace="871e6f72-565c-478e-b54b-0f8101fa5872"/>
     <xsd:import namespace="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
     <xsd:element name="properties">
@@ -6876,6 +6889,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6928,6 +6942,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7071,19 +7090,57 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8c68da25-5010-4e84-9e5a-c912ee6e5b08" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="871e6f72-565c-478e-b54b-0f8101fa5872">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4575A7-065E-4010-A177-98010E3A656A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89AD7D46-AA4A-4F45-9BE5-6D86E5FB32B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89AD7D46-AA4A-4F45-9BE5-6D86E5FB32B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8485CA-6343-4E74-9945-68602BB0EFD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
+    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DFA2AF-52FC-4B58-8A98-C99BD6D05750}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
+    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{411769f2-88ef-4c20-80b1-26523e4e7599}" enabled="1" method="Standard" siteId="{576ec8d8-f4f9-4e36-b6f4-e32d84d3d87a}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/assets/archive/OWASP_MASDG_Checklist-en.xlsx
+++ b/assets/archive/OWASP_MASDG_Checklist-en.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1921" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54962A9-E5DB-4F22-8C53-56B6A7230951}"/>
+  <xr:revisionPtr revIDLastSave="1918" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79B0469-1103-463E-9141-A973DA5DA862}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="1620" windowWidth="22428" windowHeight="11340" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
@@ -606,6 +606,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>MSTG-Authentication and Session Management Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSTG-Network Communication Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSTG-Platform Interaction Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSTG-Code Quality and Build Setting Requirements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Ensure that plain-text HTTP URLs are not used (Required)</t>
   </si>
   <si>
@@ -1063,10 +1079,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Copyright © 2023 LAC Co., Ltd. This work is licensed under a Creative Commons Attribution-ShareAlike 4.0 International License.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>About the Checklist</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1075,6 +1087,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>The OWASP Mobile Application Security Design Checklist includes links to the MASDG rulebooks for each L1 requirement of MASVS (v1.5.0).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Using the Checklists</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1091,23 +1107,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MASDG-Authentication and Session Management Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MASDG-Network Communication Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MASDG-Platform Interaction Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MASDG-Code Quality and Build Setting Requirements</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The OWASP Mobile Application Security Design Checklist includes links to the MASDG rulebooks for each L1 requirement of MASVS (v1.4.2).</t>
+    <t>Copyright © The OWASP Foundation. This work is licensed under a Creative Commons Attribution-ShareAlike 4.0 International License.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2258,10 +2258,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2527,9 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AE3494-307A-4235-9450-93863A985D28}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2561,7 +2555,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="48"/>
       <c r="B3" s="50" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -2588,7 +2582,7 @@
     </row>
     <row r="7" spans="1:6" ht="22.8" thickBot="1">
       <c r="B7" s="52" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -2597,37 +2591,37 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="54" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="54" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="22.8" thickBot="1">
       <c r="B35" s="52" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -2636,17 +2630,17 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="54" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="22.8" thickBot="1">
       <c r="B41" s="52" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -2655,7 +2649,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="54" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4408,7 +4402,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="14"/>
       <c r="B3" s="16" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -4869,7 +4863,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="18"/>
       <c r="B3" s="20" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -4919,14 +4913,14 @@
         <v>29</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="32" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -4937,7 +4931,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -4948,7 +4942,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="32" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -4959,7 +4953,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -4970,7 +4964,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -4981,7 +4975,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="32" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -4992,7 +4986,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -5003,7 +4997,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -5014,7 +5008,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -5029,14 +5023,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6">
       <c r="D20" s="32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -5047,7 +5041,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -5058,7 +5052,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -5069,7 +5063,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -5084,14 +5078,14 @@
         <v>31</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6">
       <c r="D25" s="32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
@@ -5102,7 +5096,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -5113,7 +5107,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="32" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -5124,7 +5118,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
@@ -5135,7 +5129,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -5224,7 +5218,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="22"/>
       <c r="B3" s="24" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -5274,14 +5268,14 @@
         <v>32</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="32" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -5292,7 +5286,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="32" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -5303,7 +5297,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="32" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -5314,7 +5308,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="32" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -5325,7 +5319,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="32" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -5336,7 +5330,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -5347,7 +5341,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="32" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -5358,7 +5352,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -5369,7 +5363,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -5380,7 +5374,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -5391,7 +5385,7 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -5406,14 +5400,14 @@
         <v>33</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6">
       <c r="D22" s="32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -5424,7 +5418,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
@@ -5435,7 +5429,7 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -5446,7 +5440,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
@@ -5457,7 +5451,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="32" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -5468,7 +5462,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -5479,7 +5473,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -5494,14 +5488,14 @@
         <v>34</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="2:6">
       <c r="D30" s="32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -5512,7 +5506,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="32" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -5523,7 +5517,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -5534,7 +5528,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="32" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -5545,7 +5539,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -5556,7 +5550,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="32" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -5567,7 +5561,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -5582,14 +5576,14 @@
         <v>35</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6">
       <c r="D38" s="32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -5600,7 +5594,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="32" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -5611,7 +5605,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="32" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -5622,7 +5616,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -5633,7 +5627,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -5644,7 +5638,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -5655,7 +5649,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -5666,7 +5660,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -5677,7 +5671,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -5688,7 +5682,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -5703,14 +5697,14 @@
         <v>36</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6">
       <c r="D49" s="32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E49" t="s">
         <v>0</v>
@@ -5721,7 +5715,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
         <v>0</v>
@@ -5732,7 +5726,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -5743,7 +5737,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="32" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -5754,7 +5748,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="32" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -5765,7 +5759,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="32" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -5776,7 +5770,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -5791,14 +5785,14 @@
         <v>37</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="2:6">
       <c r="D57" s="32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
         <v>0</v>
@@ -5809,7 +5803,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="32" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -5820,7 +5814,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -5831,7 +5825,7 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="32" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -5842,7 +5836,7 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -5853,7 +5847,7 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -5868,14 +5862,14 @@
         <v>38</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="2:6">
       <c r="D64" s="32" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
         <v>0</v>
@@ -5886,7 +5880,7 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="32" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -5897,7 +5891,7 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -5912,14 +5906,14 @@
         <v>39</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="2:6">
       <c r="D68" s="32" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E68" t="s">
         <v>0</v>
@@ -5930,7 +5924,7 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
         <v>0</v>
@@ -5941,7 +5935,7 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="32" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
         <v>0</v>
@@ -5952,7 +5946,7 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="32" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
         <v>0</v>
@@ -5963,7 +5957,7 @@
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="32" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
         <v>0</v>
@@ -5974,7 +5968,7 @@
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="32" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E73" t="s">
         <v>0</v>
@@ -5985,7 +5979,7 @@
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E74" t="s">
         <v>0</v>
@@ -5996,7 +5990,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="32" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
         <v>0</v>
@@ -6007,7 +6001,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="32" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -6018,7 +6012,7 @@
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -6029,7 +6023,7 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -6040,7 +6034,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="32" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
         <v>4</v>
@@ -6051,7 +6045,7 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -6062,7 +6056,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -6073,7 +6067,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="32" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -6084,7 +6078,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="32" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -6095,7 +6089,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="32" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E84" t="s">
         <v>4</v>
@@ -6106,7 +6100,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="32" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -6246,7 +6240,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -6296,14 +6290,14 @@
         <v>41</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -6314,7 +6308,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -6325,7 +6319,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -6336,7 +6330,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -6347,7 +6341,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -6358,7 +6352,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="32" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -6369,7 +6363,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -6384,14 +6378,14 @@
         <v>40</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:6">
       <c r="D18" s="32" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -6402,7 +6396,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="32" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -6417,14 +6411,14 @@
         <v>42</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6">
       <c r="D21" s="32" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -6435,7 +6429,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="32" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -6450,14 +6444,14 @@
         <v>43</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6">
       <c r="D24" s="32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -6468,7 +6462,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -6479,7 +6473,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -6494,14 +6488,14 @@
         <v>44</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6">
       <c r="D28" s="32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
@@ -6512,7 +6506,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="32" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -6523,7 +6517,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="32" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -6534,7 +6528,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="32" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -6545,7 +6539,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="32" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -6556,7 +6550,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="32" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -6567,7 +6561,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="32" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -6578,7 +6572,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="32" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -6593,14 +6587,14 @@
         <v>45</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6">
       <c r="D37" s="32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -6611,7 +6605,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="32" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -6622,7 +6616,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -6633,7 +6627,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="32" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -6644,7 +6638,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="32" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -6655,7 +6649,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="32" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -6666,7 +6660,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -6681,14 +6675,14 @@
         <v>46</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="2:6">
       <c r="D45" s="32" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
         <v>0</v>
@@ -6699,7 +6693,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="32" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
         <v>0</v>
@@ -6710,7 +6704,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="32" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
         <v>0</v>
@@ -6721,7 +6715,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="32" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E48" t="s">
         <v>0</v>
@@ -6732,7 +6726,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="32" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -6743,7 +6737,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="32" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -6754,7 +6748,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -6769,14 +6763,14 @@
         <v>47</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
       <c r="D53" s="32" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
         <v>0</v>
@@ -6787,7 +6781,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -6858,287 +6852,6 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BCA8C4E00CD6914BB15E65BC01CBDE7F" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="825df9bb69f99628fb034bb6e43fa995">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871e6f72-565c-478e-b54b-0f8101fa5872" xmlns:ns3="8c68da25-5010-4e84-9e5a-c912ee6e5b08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2957babd94b427b2ef1827f483616001" ns2:_="" ns3:_="">
-    <xsd:import namespace="871e6f72-565c-478e-b54b-0f8101fa5872"/>
-    <xsd:import namespace="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="871e6f72-565c-478e-b54b-0f8101fa5872" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="46bebaf0-6379-4e70-9fda-b1017a58f32e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c68da25-5010-4e84-9e5a-c912ee6e5b08" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4cd07a6f-f789-4228-ba62-41ca771813f6}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8c68da25-5010-4e84-9e5a-c912ee6e5b08">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8c68da25-5010-4e84-9e5a-c912ee6e5b08" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="871e6f72-565c-478e-b54b-0f8101fa5872">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89AD7D46-AA4A-4F45-9BE5-6D86E5FB32B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8485CA-6343-4E74-9945-68602BB0EFD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
-    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49DFA2AF-52FC-4B58-8A98-C99BD6D05750}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
-    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{411769f2-88ef-4c20-80b1-26523e4e7599}" enabled="1" method="Standard" siteId="{576ec8d8-f4f9-4e36-b6f4-e32d84d3d87a}" removed="0"/>
